--- a/output/testing_result_formatted.xlsx
+++ b/output/testing_result_formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jace/Desktop/GitHub/Multiclass_Sentiment_Classification_Chinese/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06331DED-397B-6240-9DCF-C3502739E048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D24170-CA73-0446-9542-A26015FA353D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>Model</t>
   </si>
@@ -71,6 +71,9 @@
   <si>
     <t>Metrics</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>-</t>
@@ -390,7 +393,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -441,9 +444,6 @@
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -953,10 +953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5971BE69-038C-3A49-AA2B-08B7F3253A03}">
-  <dimension ref="B5:M16"/>
+  <dimension ref="B5:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="400" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="293" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -1006,16 +1006,16 @@
     <row r="7" spans="2:13" ht="37">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -1047,10 +1047,10 @@
         <v>74.337222821812432</v>
       </c>
       <c r="E8" s="15">
-        <v>0.2008852484990048</v>
+        <v>0.19601487529224751</v>
       </c>
       <c r="F8" s="15">
-        <v>5.9932453918457029E-2</v>
+        <v>6.9938371276855468E-2</v>
       </c>
       <c r="H8" t="s">
         <v>7</v>
@@ -1082,10 +1082,10 @@
         <v>75.237225455755663</v>
       </c>
       <c r="E9" s="16">
-        <v>0.19380096975973771</v>
+        <v>0.18910235172972301</v>
       </c>
       <c r="F9" s="16">
-        <v>5.6208170700073237E-2</v>
+        <v>6.1031583023071288E-2</v>
       </c>
       <c r="H9" t="s">
         <v>8</v>
@@ -1117,10 +1117,10 @@
         <v>75.401369862866545</v>
       </c>
       <c r="E10" s="17">
-        <v>0.2008555885123085</v>
+        <v>0.19598593439869311</v>
       </c>
       <c r="F10" s="17">
-        <v>5.5754750442504893E-2</v>
+        <v>6.2620750045776372E-2</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
@@ -1152,10 +1152,10 @@
         <v>75.628217647852537</v>
       </c>
       <c r="E11" s="17">
-        <v>0.19372552379584801</v>
+        <v>0.18902873491956079</v>
       </c>
       <c r="F11" s="17">
-        <v>5.6631802749633788E-2</v>
+        <v>6.2153733825683587E-2</v>
       </c>
       <c r="H11" t="s">
         <v>10</v>
@@ -1187,10 +1187,10 @@
         <v>75.515194647391183</v>
       </c>
       <c r="E12" s="17">
-        <v>0.68541923432973462</v>
+        <v>0.66880155085512061</v>
       </c>
       <c r="F12" s="17">
-        <v>0.1941511585235596</v>
+        <v>0.22074167861938479</v>
       </c>
       <c r="H12" t="s">
         <v>11</v>
@@ -1222,10 +1222,10 @@
         <v>71.352932140229782</v>
       </c>
       <c r="E13" s="17">
-        <v>5.2430126810400102E-2</v>
+        <v>5.1158981782319417E-2</v>
       </c>
       <c r="F13" s="17">
-        <v>1.4205646514892581E-2</v>
+        <v>1.553665046691895E-2</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
@@ -1257,10 +1257,10 @@
         <v>72.085198767296362</v>
       </c>
       <c r="E14" s="17">
-        <v>8.6636842489099461E-2</v>
+        <v>8.4536370903805058E-2</v>
       </c>
       <c r="F14" s="17">
-        <v>2.4284172821044919E-2</v>
+        <v>2.7458496856689451E-2</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
@@ -1286,21 +1286,229 @@
         <v>13</v>
       </c>
       <c r="C15" s="19">
-        <v>79.179999999999993</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="D15" s="19">
-        <v>76.525006151107576</v>
-      </c>
-      <c r="E15" s="21" t="s">
+        <v>76.862225122496127</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="20">
-        <v>0.45052949028015138</v>
+        <v>0.3870946243286133</v>
       </c>
     </row>
     <row r="16" spans="2:13">
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="5:13">
+      <c r="H17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13">
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>0.6528300105452538</v>
+      </c>
+      <c r="J18">
+        <v>77.28</v>
+      </c>
+      <c r="K18">
+        <v>74.337222821812432</v>
+      </c>
+      <c r="L18">
+        <v>6.9938371276855468E-2</v>
+      </c>
+      <c r="M18">
+        <v>0.19601487529224751</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13">
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>0.63628309211134915</v>
+      </c>
+      <c r="J19">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="K19">
+        <v>75.237225455755663</v>
+      </c>
+      <c r="L19">
+        <v>6.1031583023071288E-2</v>
+      </c>
+      <c r="M19">
+        <v>0.18910235172972301</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13">
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>0.60380771420300006</v>
+      </c>
+      <c r="J20">
+        <v>78.539999999999992</v>
+      </c>
+      <c r="K20">
+        <v>75.401369862866545</v>
+      </c>
+      <c r="L20">
+        <v>6.2620750045776372E-2</v>
+      </c>
+      <c r="M20">
+        <v>0.19598593439869311</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13">
+      <c r="E21" s="15">
+        <v>0.19601487529224751</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21">
+        <v>0.59758837364912032</v>
+      </c>
+      <c r="J21">
+        <v>78.459999999999994</v>
+      </c>
+      <c r="K21">
+        <v>75.628217647852537</v>
+      </c>
+      <c r="L21">
+        <v>6.2153733825683587E-2</v>
+      </c>
+      <c r="M21">
+        <v>0.18902873491956079</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13">
+      <c r="E22" s="16">
+        <v>0.18910235172972301</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>0.60693669086098667</v>
+      </c>
+      <c r="J22">
+        <v>78.100000000000009</v>
+      </c>
+      <c r="K22">
+        <v>75.515194647391183</v>
+      </c>
+      <c r="L22">
+        <v>0.22074167861938479</v>
+      </c>
+      <c r="M22">
+        <v>0.66880155085512061</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13">
+      <c r="E23" s="17">
+        <v>0.19598593439869311</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23">
+        <v>0.69427546977400778</v>
+      </c>
+      <c r="J23">
+        <v>74.839999999999989</v>
+      </c>
+      <c r="K23">
+        <v>71.352932140229782</v>
+      </c>
+      <c r="L23">
+        <v>1.553665046691895E-2</v>
+      </c>
+      <c r="M23">
+        <v>5.1158981782319417E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13">
+      <c r="E24" s="17">
+        <v>0.18902873491956079</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24">
+        <v>0.71617703029513358</v>
+      </c>
+      <c r="J24">
+        <v>74.78</v>
+      </c>
+      <c r="K24">
+        <v>72.085198767296362</v>
+      </c>
+      <c r="L24">
+        <v>2.7458496856689451E-2</v>
+      </c>
+      <c r="M24">
+        <v>8.4536370903805058E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13">
+      <c r="E25" s="17">
+        <v>0.66880155085512061</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25">
+        <v>1.3145612703323359</v>
+      </c>
+      <c r="J25">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="K25">
+        <v>76.862225122496127</v>
+      </c>
+      <c r="L25">
+        <v>0.3870946243286133</v>
+      </c>
+      <c r="M25"/>
+    </row>
+    <row r="26" spans="5:13">
+      <c r="E26" s="17">
+        <v>5.1158981782319417E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13">
+      <c r="E27" s="17">
+        <v>8.4536370903805058E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13">
+      <c r="E28" s="20" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1309,7 +1517,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C8:F15">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1323,7 +1531,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C15">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1337,7 +1545,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D15">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1351,6 +1559,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:F15">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFF2CC"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7A20AD44-4161-B741-8D4C-687483B0B0A0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:E28">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="4" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{523FAAAE-8675-FC46-B704-B00B6DEB68A4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:E28">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1359,7 +1595,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7A20AD44-4161-B741-8D4C-687483B0B0A0}</x14:id>
+          <x14:id>{828F1A0D-2688-9E4C-B777-CC085DB04CEC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1416,6 +1652,32 @@
           </x14:cfRule>
           <xm:sqref>E8:F15</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{523FAAAE-8675-FC46-B704-B00B6DEB68A4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E21:E28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{828F1A0D-2688-9E4C-B777-CC085DB04CEC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E21:E28</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/output/testing_result_formatted.xlsx
+++ b/output/testing_result_formatted.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jace/Desktop/GitHub/Multiclass_Sentiment_Classification_Chinese/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D24170-CA73-0446-9542-A26015FA353D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1518812-9730-4046-A9DA-F793230A35A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
   <si>
     <t>Model</t>
   </si>
@@ -74,10 +75,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -143,14 +140,39 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Angry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Happy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Surprise</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fear</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="180" formatCode="0.0%"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -393,7 +415,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -448,6 +470,21 @@
     </xf>
     <xf numFmtId="179" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -458,6 +495,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFCE220"/>
+      <color rgb="FFFF4C21"/>
       <color rgb="FFFFF2CC"/>
       <color rgb="FFE2EFDA"/>
       <color rgb="FFD9E1F2"/>
@@ -955,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5971BE69-038C-3A49-AA2B-08B7F3253A03}">
   <dimension ref="B5:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="293" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="291" workbookViewId="0">
+      <selection activeCell="C16" activeCellId="1" sqref="B17 C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -965,7 +1004,7 @@
     <col min="2" max="2" width="16.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.1640625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="12.33203125" style="3" customWidth="1"/>
     <col min="7" max="8" width="10.83203125" style="3"/>
     <col min="9" max="13" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="10.83203125" style="3"/>
@@ -1006,16 +1045,16 @@
     <row r="7" spans="2:13" ht="37">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -1383,9 +1422,7 @@
       </c>
     </row>
     <row r="21" spans="5:13">
-      <c r="E21" s="15">
-        <v>0.19601487529224751</v>
-      </c>
+      <c r="E21" s="15"/>
       <c r="H21" t="s">
         <v>9</v>
       </c>
@@ -1406,9 +1443,7 @@
       </c>
     </row>
     <row r="22" spans="5:13">
-      <c r="E22" s="16">
-        <v>0.18910235172972301</v>
-      </c>
+      <c r="E22" s="16"/>
       <c r="H22" t="s">
         <v>10</v>
       </c>
@@ -1429,9 +1464,7 @@
       </c>
     </row>
     <row r="23" spans="5:13">
-      <c r="E23" s="17">
-        <v>0.19598593439869311</v>
-      </c>
+      <c r="E23" s="17"/>
       <c r="H23" t="s">
         <v>11</v>
       </c>
@@ -1452,9 +1485,7 @@
       </c>
     </row>
     <row r="24" spans="5:13">
-      <c r="E24" s="17">
-        <v>0.18902873491956079</v>
-      </c>
+      <c r="E24" s="17"/>
       <c r="H24" t="s">
         <v>12</v>
       </c>
@@ -1475,9 +1506,7 @@
       </c>
     </row>
     <row r="25" spans="5:13">
-      <c r="E25" s="17">
-        <v>0.66880155085512061</v>
-      </c>
+      <c r="E25" s="17"/>
       <c r="H25" t="s">
         <v>13</v>
       </c>
@@ -1496,19 +1525,13 @@
       <c r="M25"/>
     </row>
     <row r="26" spans="5:13">
-      <c r="E26" s="17">
-        <v>5.1158981782319417E-2</v>
-      </c>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" spans="5:13">
-      <c r="E27" s="17">
-        <v>8.4536370903805058E-2</v>
-      </c>
+      <c r="E27" s="17"/>
     </row>
     <row r="28" spans="5:13">
-      <c r="E28" s="20" t="s">
-        <v>17</v>
-      </c>
+      <c r="E28" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1517,7 +1540,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C8:F15">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1531,7 +1554,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C15">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1545,7 +1568,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D15">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1559,7 +1582,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:F15">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1573,7 +1596,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:E28">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1587,7 +1610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:E28">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1682,4 +1705,218 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B60756-2397-8E44-B0E4-BE67F7C49C07}">
+  <dimension ref="D21:I27"/>
+  <sheetViews>
+    <sheetView topLeftCell="D16" zoomScale="400" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="5" max="5" width="6.1640625" customWidth="1"/>
+    <col min="6" max="8" width="8.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="21" spans="4:9">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="4:9">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="4:9">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="4:9">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="24">
+        <v>2.05964278429746E-2</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="21">
+        <v>5.2377879619598298E-2</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="4:9">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="24">
+        <v>0.83053606748580899</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="22">
+        <v>5.63773512840271E-2</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="4:9">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="25">
+        <v>3.7695735692977898E-2</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="23">
+        <v>2.4164714850485299E-3</v>
+      </c>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="4:9">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="H24:H26 F24:F26">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="4" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6F9E6DF9-9D64-9C44-A756-559FF7EBAD10}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F26">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFE2EFDA"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E9D73B1E-0A48-3F46-ACED-A6F5E98A64EF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:H26">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFF2CC"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C54AF5D7-A8F1-8C4A-8DB4-A273F3EC0FBD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F25">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF4C21"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{200E9AB3-E8E6-1A45-B221-687EA07EF5CE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6F9E6DF9-9D64-9C44-A756-559FF7EBAD10}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H24:H26 F24:F26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E9D73B1E-0A48-3F46-ACED-A6F5E98A64EF}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F24:F26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C54AF5D7-A8F1-8C4A-8DB4-A273F3EC0FBD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H24:H26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{200E9AB3-E8E6-1A45-B221-687EA07EF5CE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F24:F25</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>